--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453EEAD8-841A-406C-8E1D-5FABD83915BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819D080-F2F3-409D-B1AB-25660D862E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F2A5CA3-5DB1-487D-A054-8AF76689A354}"/>
   </bookViews>
@@ -675,8 +675,8 @@
   </sheetPr>
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,421 +1292,89 @@
       <c r="L16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="X52" s="1"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="X53" s="1"/>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="X54" s="1"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="X56" s="1"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="X58" s="1"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="X59" s="1"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="X60" s="1"/>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="X61" s="1"/>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="X62" s="1"/>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="X63" s="1"/>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="X64" s="1"/>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="X65" s="1"/>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="X66" s="1"/>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="X67" s="1"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="X68" s="1"/>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="X69" s="1"/>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="X70" s="1"/>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="X71" s="1"/>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="X72" s="1"/>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="X73" s="1"/>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="X74" s="1"/>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="X75" s="1"/>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="X76" s="1"/>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="X77" s="1"/>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="X78" s="1"/>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="X79" s="1"/>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="X80" s="1"/>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="X81" s="1"/>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="X82" s="1"/>
-    </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="X83" s="1"/>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="X84" s="1"/>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="X85" s="1"/>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="X86" s="1"/>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="X87" s="1"/>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="X88" s="1"/>
-    </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="X89" s="1"/>
-    </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="X90" s="1"/>
-    </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="X91" s="1"/>
-    </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="X92" s="1"/>
-    </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="X93" s="1"/>
-    </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="X94" s="1"/>
-    </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="X95" s="1"/>
-    </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="X96" s="1"/>
-    </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="X97" s="1"/>
-    </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="X98" s="1"/>
-    </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="X99" s="1"/>
-    </row>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="F2:J2"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A22739EF-7DB7-4D90-BEBC-0F1D4B8B5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D6928B-BA47-47C6-9818-AAC4B14921D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>УЧЁТ ВЫДАЧИ ПЕЧАТНЫХ ИЗДАНИЙ, ИЗДАНИЙ НА ДРУГИХ НОСИТЕЛЯХ И СПРАВОЧНО-БИБЛИОГРАФИЧЕСКОЙ РАБОТЫ за 2025 г.</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Числа месяца</t>
   </si>
   <si>
-    <t>Всего выдано книг (абонемент+читальный зал; 3+4+5) гр.1 + Электронные ресурсы</t>
-  </si>
-  <si>
     <t>Из них по возрастам гр.1</t>
   </si>
   <si>
@@ -51,18 +48,6 @@
     <t>Из гр. 1</t>
   </si>
   <si>
-    <t>Всего выдано книг (абонемент+читальный зал; 8+9+10+11+12+13+14 +15+16+17+18) гр.2</t>
-  </si>
-  <si>
-    <t>Всего выдано справок (19+20+21+22) гр.3</t>
-  </si>
-  <si>
-    <t>Из них  по возрастам гр.2</t>
-  </si>
-  <si>
-    <t>Из гр.2</t>
-  </si>
-  <si>
     <t>Примечание</t>
   </si>
   <si>
@@ -130,6 +115,33 @@
   </si>
   <si>
     <t>Итого с начала года</t>
+  </si>
+  <si>
+    <t>НЭБ</t>
+  </si>
+  <si>
+    <t>Президентская</t>
+  </si>
+  <si>
+    <t>Литрес</t>
+  </si>
+  <si>
+    <t>Консультант +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (6+7+8+9+10)      гр.1 </t>
+  </si>
+  <si>
+    <t>Всего выдано книг (абонемент+читальный зал; (13-23) гр.2</t>
+  </si>
+  <si>
+    <t>Всего выдано справок (25+26+27)      гр.3</t>
+  </si>
+  <si>
+    <t>Из них  по возрастам гр.3</t>
+  </si>
+  <si>
+    <t>Из гр.3</t>
   </si>
 </sst>
 </file>
@@ -299,9 +311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,6 +344,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,21 +695,21 @@
   <dimension ref="A1:AD90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AD5"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="14" customWidth="1"/>
     <col min="3" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="14" customWidth="1"/>
     <col min="13" max="23" width="8.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" style="15" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="14" customWidth="1"/>
     <col min="25" max="29" width="8.7109375" style="1" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="31" max="32" width="9.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,25 +751,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
+      <c r="K2" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="M2" s="22"/>
       <c r="N2" s="17"/>
@@ -771,498 +783,552 @@
       <c r="V2" s="17"/>
       <c r="W2" s="21"/>
       <c r="X2" s="26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="17"/>
       <c r="AA2" s="21"/>
-      <c r="AB2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>9</v>
+      <c r="AB2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="24"/>
+    </row>
+    <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10">
+        <v>9</v>
+      </c>
+      <c r="J4" s="10">
+        <v>10</v>
+      </c>
+      <c r="K4" s="12">
+        <v>11</v>
+      </c>
+      <c r="L4" s="11">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10">
+        <v>13</v>
+      </c>
+      <c r="N4" s="10">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="O4" s="10">
         <v>15</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="6" t="s">
+      <c r="P4" s="10">
         <v>16</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="Q4" s="10">
         <v>17</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="R4" s="10">
         <v>18</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="S4" s="10">
         <v>19</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="T4" s="10">
         <v>20</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="U4" s="10">
         <v>21</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="V4" s="10">
         <v>22</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="W4" s="10">
         <v>23</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="X4" s="10">
         <v>24</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="Y4" s="10">
         <v>25</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="Z4" s="10">
         <v>26</v>
       </c>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="4" t="s">
+      <c r="AA4" s="10">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6945</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3340</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3605</v>
+      </c>
+      <c r="F5" s="7">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7">
+        <v>104</v>
+      </c>
+      <c r="L5" s="7">
+        <v>43</v>
+      </c>
+      <c r="M5" s="7">
+        <v>31</v>
+      </c>
+      <c r="N5" s="7">
+        <v>37</v>
+      </c>
+      <c r="O5" s="7">
+        <v>36</v>
+      </c>
+      <c r="P5" s="7">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>5</v>
+      </c>
+      <c r="R5" s="7">
+        <v>6756</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>139</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>25</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
         <v>11</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Y5" s="7">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="10"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7">
+        <f ca="1">SUM(INDIRECT("B6:B"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f ca="1">SUM(INDIRECT("C6:C"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f ca="1">SUM(INDIRECT("D6:D"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f ca="1">SUM(INDIRECT("E6:E"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f ca="1">SUM(INDIRECT("F6:F"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f ca="1">SUM(INDIRECT("L6:L"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f ca="1">SUM(INDIRECT("M6:M"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f ca="1">SUM(INDIRECT("N6:N"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f ca="1">SUM(INDIRECT("O6:O"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f ca="1">SUM(INDIRECT("P6:P"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f ca="1">SUM(INDIRECT("Q6:Q"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <f ca="1">SUM(INDIRECT("R6:R"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f ca="1">SUM(INDIRECT("S6:S"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">SUM(INDIRECT("T6:T"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f ca="1">SUM(INDIRECT("U6:U"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f ca="1">SUM(INDIRECT("V6:V"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f ca="1">SUM(INDIRECT("W6:W"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f ca="1">SUM(INDIRECT("X6:X"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f ca="1">SUM(INDIRECT("Y6:Y"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <f ca="1">SUM(INDIRECT("Z6:Z"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <f ca="1">SUM(INDIRECT("AA6:AA"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <f ca="1">SUM(INDIRECT("AB6:AB"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <f ca="1">SUM(INDIRECT("AC6:AC"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="5" t="s">
+      <c r="B8" s="13">
+        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B5)</f>
+        <v>6945</v>
+      </c>
+      <c r="C8" s="13">
+        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+D5)</f>
+        <v>3340</v>
+      </c>
+      <c r="E8" s="13">
+        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+E5)</f>
+        <v>3605</v>
+      </c>
+      <c r="F8" s="13">
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+F5)</f>
         <v>28</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="24"/>
-    </row>
-    <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11">
-        <v>4</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="G8" s="13">
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+G5)</f>
+        <v>26</v>
+      </c>
+      <c r="H8" s="13">
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J5)</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="13">
+        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K5)</f>
+        <v>104</v>
+      </c>
+      <c r="L8" s="13">
+        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L5)</f>
+        <v>43</v>
+      </c>
+      <c r="M8" s="13">
+        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M5)</f>
+        <v>31</v>
+      </c>
+      <c r="N8" s="13">
+        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N5)</f>
+        <v>37</v>
+      </c>
+      <c r="O8" s="13">
+        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O5)</f>
+        <v>36</v>
+      </c>
+      <c r="P8" s="13">
+        <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+P5)</f>
+        <v>39</v>
+      </c>
+      <c r="Q8" s="13">
+        <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q5)</f>
         <v>5</v>
       </c>
-      <c r="F4" s="11">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="R8" s="13">
+        <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+R5)</f>
+        <v>6756</v>
+      </c>
+      <c r="S8" s="13">
+        <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+T5)</f>
+        <v>139</v>
+      </c>
+      <c r="U8" s="13">
+        <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+U5)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+V5)</f>
+        <v>25</v>
+      </c>
+      <c r="W8" s="13">
+        <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+W5)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+X5)</f>
+        <v>11</v>
+      </c>
+      <c r="Y8" s="13">
+        <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Y5)</f>
         <v>7</v>
       </c>
-      <c r="H4" s="11">
-        <v>8</v>
-      </c>
-      <c r="I4" s="11">
-        <v>9</v>
-      </c>
-      <c r="J4" s="11">
-        <v>10</v>
-      </c>
-      <c r="K4" s="13">
-        <v>11</v>
-      </c>
-      <c r="L4" s="12">
-        <v>12</v>
-      </c>
-      <c r="M4" s="11">
-        <v>13</v>
-      </c>
-      <c r="N4" s="11">
-        <v>14</v>
-      </c>
-      <c r="O4" s="11">
-        <v>15</v>
-      </c>
-      <c r="P4" s="11">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>17</v>
-      </c>
-      <c r="R4" s="11">
-        <v>18</v>
-      </c>
-      <c r="S4" s="11">
-        <v>19</v>
-      </c>
-      <c r="T4" s="11">
-        <v>20</v>
-      </c>
-      <c r="U4" s="11">
-        <v>21</v>
-      </c>
-      <c r="V4" s="11">
-        <v>22</v>
-      </c>
-      <c r="W4" s="11">
-        <v>23</v>
-      </c>
-      <c r="X4" s="11">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-    </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="11"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8">
-        <f ca="1">SUM(INDIRECT("B6:B"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <f ca="1">SUM(INDIRECT("C6:C"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <f ca="1">SUM(INDIRECT("D6:D"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <f ca="1">SUM(INDIRECT("E6:E"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <f ca="1">SUM(INDIRECT("F6:F"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <f ca="1">SUM(INDIRECT("L6:L"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <f ca="1">SUM(INDIRECT("M6:M"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <f ca="1">SUM(INDIRECT("N6:N"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <f ca="1">SUM(INDIRECT("O6:O"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <f ca="1">SUM(INDIRECT("P6:P"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <f ca="1">SUM(INDIRECT("Q6:Q"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <f ca="1">SUM(INDIRECT("R6:R"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <f ca="1">SUM(INDIRECT("S6:S"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <f ca="1">SUM(INDIRECT("T6:T"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <f ca="1">SUM(INDIRECT("U6:U"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <f ca="1">SUM(INDIRECT("V6:V"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <f ca="1">SUM(INDIRECT("W6:W"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="8">
-        <f ca="1">SUM(INDIRECT("X6:X"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8">
-        <f ca="1">SUM(INDIRECT("Y6:Y"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8">
-        <f ca="1">SUM(INDIRECT("Z6:Z"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="8">
-        <f ca="1">SUM(INDIRECT("AA6:AA"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8">
-        <f ca="1">SUM(INDIRECT("AB6:AB"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="8">
-        <f ca="1">SUM(INDIRECT("AC6:AC"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="8"/>
-    </row>
-    <row r="8" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="14">
-        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K5)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L5)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N5)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O5)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+P5)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="14">
-        <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+R5)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="14">
-        <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+S5)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="14">
-        <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+T5)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="14">
-        <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+U5)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
-        <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+V5)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="14">
-        <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+W5)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="14">
-        <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+X5)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14">
-        <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Y5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="13">
         <f ca="1">SUM(INDIRECT("Z"&amp;ROW()-1)+Z5)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="13">
         <f ca="1">SUM(INDIRECT("AA"&amp;ROW()-1)+AA5)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="13">
         <f ca="1">SUM(INDIRECT("AB"&amp;ROW()-1)+AB5)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="13">
         <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+AC5)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="14"/>
+      <c r="AD8" s="13"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D6928B-BA47-47C6-9818-AAC4B14921D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1A7AF1-C670-42A3-B578-E2DF053D21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>УЧЁТ ВЫДАЧИ ПЕЧАТНЫХ ИЗДАНИЙ, ИЗДАНИЙ НА ДРУГИХ НОСИТЕЛЯХ И СПРАВОЧНО-БИБЛИОГРАФИЧЕСКОЙ РАБОТЫ за 2025 г.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -48,6 +45,18 @@
     <t>Из гр. 1</t>
   </si>
   <si>
+    <t>Всего выдано книг (абонемент+читальный зал; (13-23) гр.2</t>
+  </si>
+  <si>
+    <t>Всего выдано справок (25+26+27)      гр.3</t>
+  </si>
+  <si>
+    <t>Из них  по возрастам гр.3</t>
+  </si>
+  <si>
+    <t>Из гр.3</t>
+  </si>
+  <si>
     <t>Примечание</t>
   </si>
   <si>
@@ -60,6 +69,18 @@
     <t>Прочие (30+)</t>
   </si>
   <si>
+    <t>НЭБ</t>
+  </si>
+  <si>
+    <t>Президентская</t>
+  </si>
+  <si>
+    <t>Литрес</t>
+  </si>
+  <si>
+    <t>Консультант +</t>
+  </si>
+  <si>
     <t>Локальная библиотека</t>
   </si>
   <si>
@@ -117,31 +138,7 @@
     <t>Итого с начала года</t>
   </si>
   <si>
-    <t>НЭБ</t>
-  </si>
-  <si>
-    <t>Президентская</t>
-  </si>
-  <si>
-    <t>Литрес</t>
-  </si>
-  <si>
-    <t>Консультант +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (6+7+8+9+10)      гр.1 </t>
-  </si>
-  <si>
-    <t>Всего выдано книг (абонемент+читальный зал; (13-23) гр.2</t>
-  </si>
-  <si>
-    <t>Всего выдано справок (25+26+27)      гр.3</t>
-  </si>
-  <si>
-    <t>Из них  по возрастам гр.3</t>
-  </si>
-  <si>
-    <t>Из гр.3</t>
+    <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (7+8+9+10+11)      гр.1 </t>
   </si>
 </sst>
 </file>
@@ -304,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,6 +370,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,7 +698,7 @@
   <dimension ref="A1:AD90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,177 +711,152 @@
     <col min="24" max="24" width="16.7109375" style="14" customWidth="1"/>
     <col min="25" max="29" width="8.7109375" style="1" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="31" max="33" width="9.140625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="L1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="21"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="22"/>
       <c r="X2" s="26" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="17"/>
       <c r="AA2" s="21"/>
       <c r="AB2" s="15" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="L3" s="24"/>
       <c r="M3" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="X3" s="24"/>
       <c r="Y3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AD3" s="24"/>
     </row>
@@ -913,10 +891,10 @@
       <c r="J4" s="10">
         <v>10</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>11</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>12</v>
       </c>
       <c r="M4" s="10">
@@ -976,7 +954,7 @@
     </row>
     <row r="5" spans="1:30" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7">
         <v>6945</v>
@@ -988,10 +966,10 @@
         <v>3340</v>
       </c>
       <c r="E5" s="7">
-        <v>3605</v>
+        <v>28</v>
       </c>
       <c r="F5" s="7">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7">
         <v>26</v>
@@ -1006,60 +984,62 @@
         <v>8</v>
       </c>
       <c r="K5" s="7">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="L5" s="7">
+        <v>111</v>
+      </c>
+      <c r="M5" s="7">
         <v>43</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>31</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>37</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>36</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>39</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <v>5</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>6756</v>
       </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
       <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
         <v>139</v>
       </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
       <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
         <v>25</v>
       </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
       <c r="X5" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
         <v>11</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="AA5" s="7">
         <v>7</v>
       </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
+      <c r="AB5" s="7">
         <v>5</v>
       </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,12 +1048,12 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="11"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -1096,7 +1076,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7">
         <f ca="1">SUM(INDIRECT("B6:B"&amp;ROW()-1))</f>
@@ -1115,23 +1095,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
+        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <f ca="1">SUM(INDIRECT("F6:F"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="K7" s="7">
@@ -1214,7 +1194,7 @@
     </row>
     <row r="8" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" s="13">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B5)</f>
@@ -1230,11 +1210,11 @@
       </c>
       <c r="E8" s="13">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+E5)</f>
-        <v>3605</v>
+        <v>28</v>
       </c>
       <c r="F8" s="13">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+F5)</f>
-        <v>28</v>
+        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+F5)</f>
+        <v>104</v>
       </c>
       <c r="G8" s="13">
         <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+G5)</f>
@@ -1245,84 +1225,84 @@
         <v>0</v>
       </c>
       <c r="I8" s="13">
-        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I5)</f>
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+I5)</f>
         <v>0</v>
       </c>
       <c r="J8" s="13">
-        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J5)</f>
+        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+J5)</f>
         <v>8</v>
       </c>
       <c r="K8" s="13">
-        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K5)</f>
-        <v>104</v>
+        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+K5)</f>
+        <v>8</v>
       </c>
       <c r="L8" s="13">
         <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L5)</f>
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="M8" s="13">
         <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M5)</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N8" s="13">
         <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N5)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O8" s="13">
         <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O5)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P8" s="13">
         <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+P5)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="13">
         <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q5)</f>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="R8" s="13">
         <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+R5)</f>
-        <v>6756</v>
+        <v>5</v>
       </c>
       <c r="S8" s="13">
         <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+S5)</f>
-        <v>0</v>
+        <v>6756</v>
       </c>
       <c r="T8" s="13">
         <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+T5)</f>
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="U8" s="13">
         <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+U5)</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="V8" s="13">
         <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+V5)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W8" s="13">
         <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+W5)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X8" s="13">
         <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+X5)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y8" s="13">
         <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Y5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="13">
         <f ca="1">SUM(INDIRECT("Z"&amp;ROW()-1)+Z5)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA8" s="13">
         <f ca="1">SUM(INDIRECT("AA"&amp;ROW()-1)+AA5)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB8" s="13">
         <f ca="1">SUM(INDIRECT("AB"&amp;ROW()-1)+AB5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="13">
         <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+AC5)</f>
@@ -1341,7 +1321,10 @@
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <f ca="1">SUM(B8-B7)</f>
+        <v>6945</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="X11" s="1"/>
     </row>
@@ -1741,18 +1724,17 @@
       <c r="X90" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="X2:X3"/>
-    <mergeCell ref="F2:J2"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1A7AF1-C670-42A3-B578-E2DF053D21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A61575E-3436-4AAA-A951-D6A6C5C9A946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,11 +351,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -372,11 +377,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,18 +719,41 @@
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="L1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -739,48 +764,48 @@
       <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="26" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="21"/>
+      <c r="AA2" s="20"/>
       <c r="AB2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -808,7 +833,7 @@
       <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
@@ -842,7 +867,7 @@
       <c r="W3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="24"/>
+      <c r="X3" s="25"/>
       <c r="Y3" s="3" t="s">
         <v>9</v>
       </c>
@@ -858,7 +883,7 @@
       <c r="AC3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="24"/>
+      <c r="AD3" s="25"/>
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1353,388 +1378,93 @@
       <c r="L16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="X52" s="1"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="X53" s="1"/>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="X54" s="1"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="X56" s="1"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="X58" s="1"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="X59" s="1"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="X60" s="1"/>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="X61" s="1"/>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="X62" s="1"/>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="X63" s="1"/>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="X64" s="1"/>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="X65" s="1"/>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="X66" s="1"/>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="X67" s="1"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="X68" s="1"/>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="X69" s="1"/>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="X70" s="1"/>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="X71" s="1"/>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="X72" s="1"/>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="X73" s="1"/>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="X74" s="1"/>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="X75" s="1"/>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="X76" s="1"/>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="X77" s="1"/>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="X78" s="1"/>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="X79" s="1"/>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="X80" s="1"/>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="X81" s="1"/>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="X82" s="1"/>
-    </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="X83" s="1"/>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="X84" s="1"/>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="X85" s="1"/>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="X86" s="1"/>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="X87" s="1"/>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="X88" s="1"/>
-    </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="X89" s="1"/>
-    </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="X90" s="1"/>
-    </row>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="P1:AD1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A61575E-3436-4AAA-A951-D6A6C5C9A946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C60D90-4993-4F2D-9599-A4E0F78B05E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -344,17 +352,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,21 +382,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,21 +726,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
@@ -750,62 +758,62 @@
       <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="24" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="27" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
       <c r="AB2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -833,7 +841,7 @@
       <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
@@ -867,7 +875,7 @@
       <c r="W3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="25"/>
+      <c r="X3" s="17"/>
       <c r="Y3" s="3" t="s">
         <v>9</v>
       </c>
@@ -883,7 +891,7 @@
       <c r="AC3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="25"/>
+      <c r="AD3" s="17"/>
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -1467,6 +1475,6 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C60D90-4993-4F2D-9599-A4E0F78B05E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D540E-B71E-4FED-9CEA-28809D2C8EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,6 +370,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,30 +741,30 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="21"/>
@@ -782,17 +782,17 @@
       <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
       <c r="X2" s="18" t="s">
         <v>5</v>
       </c>
@@ -1466,13 +1466,13 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="P1:AD1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D540E-B71E-4FED-9CEA-28809D2C8EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657AF4B6-6FBC-479C-A781-D444E8CE563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,26 +367,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:AD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,45 +726,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="21"/>
@@ -782,17 +782,17 @@
       <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="28"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="26"/>
       <c r="X2" s="18" t="s">
         <v>5</v>
       </c>
@@ -1462,6 +1462,10 @@
     <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:AD1"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="L2:L3"/>
@@ -1469,10 +1473,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="M2:W2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657AF4B6-6FBC-479C-A781-D444E8CE563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B68E529-7D76-435E-AED8-31A63166A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (7+8+9+10+11)      гр.1 </t>
+  </si>
+  <si>
+    <t>По отраслям гр.2</t>
   </si>
 </sst>
 </file>
@@ -352,14 +355,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,15 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,88 +729,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="19" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="18" t="s">
+      <c r="M2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="22"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="25"/>
       <c r="AB2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -989,90 +994,34 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7">
-        <v>6945</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3340</v>
-      </c>
-      <c r="E5" s="7">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7">
-        <v>104</v>
-      </c>
-      <c r="G5" s="7">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>8</v>
-      </c>
-      <c r="K5" s="7">
-        <v>8</v>
-      </c>
-      <c r="L5" s="7">
-        <v>111</v>
-      </c>
-      <c r="M5" s="7">
-        <v>43</v>
-      </c>
-      <c r="N5" s="7">
-        <v>31</v>
-      </c>
-      <c r="O5" s="7">
-        <v>37</v>
-      </c>
-      <c r="P5" s="7">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>39</v>
-      </c>
-      <c r="R5" s="7">
-        <v>5</v>
-      </c>
-      <c r="S5" s="7">
-        <v>6756</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>139</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>25</v>
-      </c>
-      <c r="X5" s="7">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,7 +1180,7 @@
       </c>
       <c r="B8" s="13">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B5)</f>
-        <v>6945</v>
+        <v>0</v>
       </c>
       <c r="C8" s="13">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+C5)</f>
@@ -1239,19 +1188,19 @@
       </c>
       <c r="D8" s="13">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+D5)</f>
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="E8" s="13">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+E5)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F8" s="13">
         <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+F5)</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G8" s="13">
         <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+G5)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H8" s="13">
         <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H5)</f>
@@ -1263,43 +1212,43 @@
       </c>
       <c r="J8" s="13">
         <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+J5)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8" s="13">
         <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+K5)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L8" s="13">
         <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L5)</f>
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="M8" s="13">
         <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M5)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N8" s="13">
         <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N5)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O8" s="13">
         <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O5)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="P8" s="13">
         <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+P5)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="13">
         <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q5)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R8" s="13">
         <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+R5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S8" s="13">
         <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+S5)</f>
-        <v>6756</v>
+        <v>0</v>
       </c>
       <c r="T8" s="13">
         <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+T5)</f>
@@ -1307,7 +1256,7 @@
       </c>
       <c r="U8" s="13">
         <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+U5)</f>
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="V8" s="13">
         <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+V5)</f>
@@ -1315,11 +1264,11 @@
       </c>
       <c r="W8" s="13">
         <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+W5)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X8" s="13">
         <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+X5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="13">
         <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Y5)</f>
@@ -1327,15 +1276,15 @@
       </c>
       <c r="Z8" s="13">
         <f ca="1">SUM(INDIRECT("Z"&amp;ROW()-1)+Z5)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="13">
         <f ca="1">SUM(INDIRECT("AA"&amp;ROW()-1)+AA5)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="13">
         <f ca="1">SUM(INDIRECT("AB"&amp;ROW()-1)+AB5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="13">
         <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+AC5)</f>
@@ -1356,7 +1305,7 @@
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f ca="1">SUM(B8-B7)</f>
-        <v>6945</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="X11" s="1"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B68E529-7D76-435E-AED8-31A63166A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D80F8-D1D1-4EC5-8D0D-489BE4FAD07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Книговыдача" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -710,8 +699,12 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AD5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="25" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/apps/reports/excell/books_template.xlsx
+++ b/apps/reports/excell/books_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D80F8-D1D1-4EC5-8D0D-489BE4FAD07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B73F7A-6DC3-46D0-AA2F-BFA288AD1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,12 +699,11 @@
   </sheetPr>
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="25" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="12" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
